--- a/Robot Cuentas por Cobrar/Config - Copy/Archivos/UiTree.xlsx
+++ b/Robot Cuentas por Cobrar/Config - Copy/Archivos/UiTree.xlsx
@@ -15,20 +15,14 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$791</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$I$90</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
-  <si>
-    <t>Documentos/1891750060001 Frevitransport Cia. Ltda./FC/001-002-000000794</t>
-  </si>
-  <si>
-    <t>001-002-000000794</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="191">
   <si>
     <t>Documentos/1802085157001 FREIRE CONSTANTE LAURA TER/FC/001-002-000000866</t>
   </si>
@@ -60,30 +54,6 @@
     <t>001-104-000210421</t>
   </si>
   <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-011-000000023</t>
-  </si>
-  <si>
-    <t>001-011-000000023</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000057</t>
-  </si>
-  <si>
-    <t>001-009-000000057</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000056</t>
-  </si>
-  <si>
-    <t>001-009-000000056</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-008-000000050</t>
-  </si>
-  <si>
-    <t>001-008-000000050</t>
-  </si>
-  <si>
     <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-006-000000047</t>
   </si>
   <si>
@@ -96,40 +66,493 @@
     <t>001-005-000000139</t>
   </si>
   <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-005-000000137</t>
-  </si>
-  <si>
-    <t>001-005-000000137</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-005-000000136</t>
-  </si>
-  <si>
-    <t>001-005-000000136</t>
-  </si>
-  <si>
     <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-003-000000074</t>
   </si>
   <si>
     <t>001-003-000000074</t>
   </si>
   <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-003-000000073</t>
-  </si>
-  <si>
-    <t>001-003-000000073</t>
-  </si>
-  <si>
     <t>Documentos/1792605504001 ADESGAE CIA. LTDA/FC/019-004-000156661</t>
   </si>
   <si>
     <t>019-004-000156661</t>
   </si>
   <si>
-    <t>Documentos/1792529913001 NEW STEEL TRANSPORTES ECUA/FC/001-002-000000141</t>
-  </si>
-  <si>
-    <t>001-002-000000141</t>
+    <t>Documentos/1792513960001 SISEKAROF S.A./FC/001-002-000000277</t>
+  </si>
+  <si>
+    <t>001-002-000000277</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000251</t>
+  </si>
+  <si>
+    <t>001-002-000000251</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000250</t>
+  </si>
+  <si>
+    <t>001-002-000000250</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000249</t>
+  </si>
+  <si>
+    <t>001-002-000000249</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000248</t>
+  </si>
+  <si>
+    <t>001-002-000000248</t>
+  </si>
+  <si>
+    <t>Documentos/1792449367001 ESTACION DE SERVICIOS COOP/FC/002-011-001060551</t>
+  </si>
+  <si>
+    <t>002-011-001060551</t>
+  </si>
+  <si>
+    <t>Documentos/1792412110001 COMPANIA DE TRANSPORTE PES/FC/001-001-000020871</t>
+  </si>
+  <si>
+    <t>001-001-000020871</t>
+  </si>
+  <si>
+    <t>Documentos/1792400856001 CALDECARGO COMPANIA DE TRA/FC/001-006-000000095</t>
+  </si>
+  <si>
+    <t>001-006-000000095</t>
+  </si>
+  <si>
+    <t>Documentos/1792400856001 CALDECARGO COMPANIA DE TRA/FC/001-006-000000093</t>
+  </si>
+  <si>
+    <t>001-006-000000093</t>
+  </si>
+  <si>
+    <t>Documentos/1792373379001 PROCOOK SA/FC/003-001-000010287</t>
+  </si>
+  <si>
+    <t>003-001-000010287</t>
+  </si>
+  <si>
+    <t>Documentos/1792333652001 SERVICIO DE TRANSPORTE DE/FC/001-015-000000057</t>
+  </si>
+  <si>
+    <t>001-015-000000057</t>
+  </si>
+  <si>
+    <t>Documentos/1792256267001 SUSHICORP S A/FC/015-050-000114878</t>
+  </si>
+  <si>
+    <t>015-050-000114878</t>
+  </si>
+  <si>
+    <t>Documentos/1792256267001 SUSHICORP S A/FC/015-050-000113730</t>
+  </si>
+  <si>
+    <t>015-050-000113730</t>
+  </si>
+  <si>
+    <t>Documentos/1792256267001 SUSHICORP S A/FC/007-050-000166983</t>
+  </si>
+  <si>
+    <t>007-050-000166983</t>
+  </si>
+  <si>
+    <t>Documentos/1792171946001 EXPRESSGRILL CIA. LTDA./FC/019-001-000083436</t>
+  </si>
+  <si>
+    <t>019-001-000083436</t>
+  </si>
+  <si>
+    <t>Documentos/1792153034001 COMPANIA DE TRANSPORTE PES/FC/001-015-000000112</t>
+  </si>
+  <si>
+    <t>001-015-000000112</t>
+  </si>
+  <si>
+    <t>Documentos/1792132231001 LUBRICANTES Y COMBUSTIBLES/FC/001-013-000520687</t>
+  </si>
+  <si>
+    <t>001-013-000520687</t>
+  </si>
+  <si>
+    <t>Documentos/1792132231001 LUBRICANTES Y COMBUSTIBLES/FC/001-012-000249230</t>
+  </si>
+  <si>
+    <t>001-012-000249230</t>
+  </si>
+  <si>
+    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-011-000000048</t>
+  </si>
+  <si>
+    <t>001-011-000000048</t>
+  </si>
+  <si>
+    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-010-000000054</t>
+  </si>
+  <si>
+    <t>001-010-000000054</t>
+  </si>
+  <si>
+    <t>Documentos/1791999053001 VICOMBUSTIBLES CIA. LTDA/FC/001-007-301633951</t>
+  </si>
+  <si>
+    <t>001-007-301633951</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-027-000000026</t>
+  </si>
+  <si>
+    <t>001-027-000000026</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-025-000000054</t>
+  </si>
+  <si>
+    <t>001-025-000000054</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-025-000000053</t>
+  </si>
+  <si>
+    <t>001-025-000000053</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-025-000000052</t>
+  </si>
+  <si>
+    <t>001-025-000000052</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-023-000000032</t>
+  </si>
+  <si>
+    <t>001-023-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-023-000000031</t>
+  </si>
+  <si>
+    <t>001-023-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-023-000000030</t>
+  </si>
+  <si>
+    <t>001-023-000000030</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-023-000000029</t>
+  </si>
+  <si>
+    <t>001-023-000000029</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-022-000000033</t>
+  </si>
+  <si>
+    <t>001-022-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-022-000000032</t>
+  </si>
+  <si>
+    <t>001-022-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-022-000000031</t>
+  </si>
+  <si>
+    <t>001-022-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-022-000000030</t>
+  </si>
+  <si>
+    <t>001-022-000000030</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-021-000000034</t>
+  </si>
+  <si>
+    <t>001-021-000000034</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-021-000000033</t>
+  </si>
+  <si>
+    <t>001-021-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-021-000000032</t>
+  </si>
+  <si>
+    <t>001-021-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-021-000000031</t>
+  </si>
+  <si>
+    <t>001-021-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-020-000000033</t>
+  </si>
+  <si>
+    <t>001-020-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-020-000000032</t>
+  </si>
+  <si>
+    <t>001-020-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-018-000000030</t>
+  </si>
+  <si>
+    <t>001-018-000000030</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-018-000000029</t>
+  </si>
+  <si>
+    <t>001-018-000000029</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-018-000000028</t>
+  </si>
+  <si>
+    <t>001-018-000000028</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-018-000000027</t>
+  </si>
+  <si>
+    <t>001-018-000000027</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-017-000000033</t>
+  </si>
+  <si>
+    <t>001-017-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-017-000000032</t>
+  </si>
+  <si>
+    <t>001-017-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-017-000000031</t>
+  </si>
+  <si>
+    <t>001-017-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-017-000000030</t>
+  </si>
+  <si>
+    <t>001-017-000000030</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-015-000000034</t>
+  </si>
+  <si>
+    <t>001-015-000000034</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-015-000000033</t>
+  </si>
+  <si>
+    <t>001-015-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-015-000000032</t>
+  </si>
+  <si>
+    <t>001-015-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-015-000000031</t>
+  </si>
+  <si>
+    <t>001-015-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-014-000000038</t>
+  </si>
+  <si>
+    <t>001-014-000000038</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-014-000000037</t>
+  </si>
+  <si>
+    <t>001-014-000000037</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-014-000000036</t>
+  </si>
+  <si>
+    <t>001-014-000000036</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-014-000000035</t>
+  </si>
+  <si>
+    <t>001-014-000000035</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-013-000000054</t>
+  </si>
+  <si>
+    <t>001-013-000000054</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-013-000000053</t>
+  </si>
+  <si>
+    <t>001-013-000000053</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-013-000000052</t>
+  </si>
+  <si>
+    <t>001-013-000000052</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-013-000000051</t>
+  </si>
+  <si>
+    <t>001-013-000000051</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-012-000000026</t>
+  </si>
+  <si>
+    <t>001-012-000000026</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-011-000000049</t>
+  </si>
+  <si>
+    <t>001-011-000000049</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-011-000000048</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-010-000000031</t>
+  </si>
+  <si>
+    <t>001-010-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-010-000000030</t>
+  </si>
+  <si>
+    <t>001-010-000000030</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-010-000000029</t>
+  </si>
+  <si>
+    <t>001-010-000000029</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-009-000000025</t>
+  </si>
+  <si>
+    <t>001-009-000000025</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-007-000000042</t>
+  </si>
+  <si>
+    <t>001-007-000000042</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-007-000000041</t>
+  </si>
+  <si>
+    <t>001-007-000000041</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-007-000000040</t>
+  </si>
+  <si>
+    <t>001-007-000000040</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-006-000000074</t>
+  </si>
+  <si>
+    <t>001-006-000000074</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-004-000000075</t>
+  </si>
+  <si>
+    <t>001-004-000000075</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000148</t>
+  </si>
+  <si>
+    <t>001-003-000000148</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000146</t>
+  </si>
+  <si>
+    <t>001-003-000000146</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000144</t>
+  </si>
+  <si>
+    <t>001-003-000000144</t>
+  </si>
+  <si>
+    <t>Documentos/1791937856001 PLUSHOTEL S.A/FC/001-004-000025643</t>
+  </si>
+  <si>
+    <t>001-004-000025643</t>
+  </si>
+  <si>
+    <t>Documentos/1791918673001 GASOLINAS Y SERVICIOS PERE/FC/001-005-000000101</t>
+  </si>
+  <si>
+    <t>001-005-000000101</t>
+  </si>
+  <si>
+    <t>Documentos/1791918673001 GASOLINAS Y SERVICIOS PERE/FC/001-005-000000100</t>
+  </si>
+  <si>
+    <t>001-005-000000100</t>
+  </si>
+  <si>
+    <t>Documentos/1791918673001 GASOLINAS Y SERVICIOS PERE/FC/001-005-000000096</t>
+  </si>
+  <si>
+    <t>001-005-000000096</t>
+  </si>
+  <si>
+    <t>Documentos/1791896459001 COMPANIA DE TRANSPORTES Y/FC/001-005-000000027</t>
+  </si>
+  <si>
+    <t>001-005-000000027</t>
+  </si>
+  <si>
+    <t>Documentos/1791896459001 COMPANIA DE TRANSPORTES Y/FC/001-004-000000029</t>
+  </si>
+  <si>
+    <t>001-004-000000029</t>
   </si>
   <si>
     <t>Path</t>
@@ -138,79 +561,40 @@
     <t>Documento</t>
   </si>
   <si>
-    <t>Compañía Cemento</t>
-  </si>
-  <si>
     <t>Categoría</t>
   </si>
   <si>
+    <t>COD SAP</t>
+  </si>
+  <si>
+    <t>Razón Social</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Vehículo</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Comentario factura</t>
+  </si>
+  <si>
     <t>No cumple cumple con los parámetros</t>
   </si>
   <si>
-    <t>Punto Emisión Cemento</t>
-  </si>
-  <si>
-    <t>COD SAP</t>
-  </si>
-  <si>
-    <t>Razón Social</t>
-  </si>
-  <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Vehículo</t>
-  </si>
-  <si>
-    <t>Placa</t>
-  </si>
-  <si>
-    <t>MALDONADO LASSO WILZON GUIDO</t>
-  </si>
-  <si>
-    <t>18UE723</t>
-  </si>
-  <si>
-    <t>PAC7334</t>
-  </si>
-  <si>
     <t>Punto Emisión MP</t>
   </si>
   <si>
-    <t>CADENA CIFUENTES IVON SILVANA</t>
-  </si>
-  <si>
-    <t>18UE663</t>
-  </si>
-  <si>
-    <t>BAA1497</t>
-  </si>
-  <si>
-    <t>ALQUINGA LUCERO WILTER FABIAN</t>
-  </si>
-  <si>
-    <t>18UE765</t>
-  </si>
-  <si>
-    <t>PAB5206</t>
-  </si>
-  <si>
-    <t>18UE005</t>
-  </si>
-  <si>
-    <t>PAA4872</t>
-  </si>
-  <si>
-    <t>ALQUINGA LUCERO BYRON EDUARDO</t>
-  </si>
-  <si>
-    <t>18UE963</t>
-  </si>
-  <si>
-    <t>PAB1803</t>
-  </si>
-  <si>
-    <t>Punto Emisión Cemento2</t>
+    <t>ALQUINGALUCEROWILTERFABIAN</t>
+  </si>
+  <si>
+    <t>ALQUINGALUCEROBYRONEDUARDO</t>
+  </si>
+  <si>
+    <t>Compañía MP</t>
   </si>
 </sst>
 </file>
@@ -545,44 +929,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="I1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -592,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -603,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -614,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -625,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -636,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -647,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -658,22 +1043,10 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>10003460</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8">
-        <v>4700005526</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -684,7 +1057,10 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>187</v>
+      </c>
+      <c r="E9" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -695,7 +1071,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -706,22 +1082,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <v>1021688</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11">
-        <v>4700005449</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -732,7 +1093,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -743,7 +1104,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -754,22 +1115,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14">
-        <v>1013844</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14">
-        <v>4700005573</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -780,22 +1126,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15">
-        <v>1013844</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15">
-        <v>4700005573</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -806,10 +1137,10 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -817,25 +1148,10 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17">
-        <v>1020877</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17">
-        <v>4700005512</v>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -843,10 +1159,10 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -854,11 +1170,791 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B791"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
